--- a/biology/Médecine/Firmin_Monestime/Firmin_Monestime.xlsx
+++ b/biology/Médecine/Firmin_Monestime/Firmin_Monestime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Firmin Monestime ou Saint-Firmin Monestime, né le 16 décembre 1909 à Cap-Haïtien et mort le 27 octobre 1977 à Mattawa en Ontario, est un médecin canadien d'origine haïtienne et le premier maire noir du Canada.
 Firmin Monestime fait des études de médecine à Port-au-Prince et s'oriente vers la médecine rurale, plus adaptée à la réalité de son pays. Il écrit trois ouvrages relatifs à ce sujet. 
